--- a/estimativasJogosCopa.xlsx
+++ b/estimativasJogosCopa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
   <si>
     <t>data</t>
   </si>
@@ -208,373 +208,346 @@
     <t>NAC. LUSAIL</t>
   </si>
   <si>
-    <t>28.3%</t>
-  </si>
-  <si>
-    <t>32.3%</t>
-  </si>
-  <si>
-    <t>17.2%</t>
-  </si>
-  <si>
-    <t>64.4%</t>
-  </si>
-  <si>
-    <t>68.4%</t>
-  </si>
-  <si>
-    <t>20.7%</t>
-  </si>
-  <si>
-    <t>54.6%</t>
-  </si>
-  <si>
-    <t>43.0%</t>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>17.9%</t>
+  </si>
+  <si>
+    <t>17.6%</t>
+  </si>
+  <si>
+    <t>53.1%</t>
+  </si>
+  <si>
+    <t>71.1%</t>
+  </si>
+  <si>
+    <t>36.0%</t>
+  </si>
+  <si>
+    <t>49.1%</t>
+  </si>
+  <si>
+    <t>42.8%</t>
+  </si>
+  <si>
+    <t>33.9%</t>
+  </si>
+  <si>
+    <t>45.5%</t>
+  </si>
+  <si>
+    <t>22.8%</t>
+  </si>
+  <si>
+    <t>33.0%</t>
+  </si>
+  <si>
+    <t>69.9%</t>
+  </si>
+  <si>
+    <t>39.8%</t>
+  </si>
+  <si>
+    <t>55.5%</t>
+  </si>
+  <si>
+    <t>50.9%</t>
+  </si>
+  <si>
+    <t>20.9%</t>
+  </si>
+  <si>
+    <t>55.6%</t>
+  </si>
+  <si>
+    <t>61.1%</t>
+  </si>
+  <si>
+    <t>35.7%</t>
+  </si>
+  <si>
+    <t>43.4%</t>
+  </si>
+  <si>
+    <t>15.3%</t>
+  </si>
+  <si>
+    <t>20.3%</t>
+  </si>
+  <si>
+    <t>46.5%</t>
+  </si>
+  <si>
+    <t>57.6%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>21.6%</t>
+  </si>
+  <si>
+    <t>61.7%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>34.1%</t>
+  </si>
+  <si>
+    <t>61.4%</t>
+  </si>
+  <si>
+    <t>56.3%</t>
+  </si>
+  <si>
+    <t>19.1%</t>
+  </si>
+  <si>
+    <t>51.1%</t>
+  </si>
+  <si>
+    <t>8.7%</t>
+  </si>
+  <si>
+    <t>31.3%</t>
+  </si>
+  <si>
+    <t>47.3%</t>
+  </si>
+  <si>
+    <t>76.2%</t>
+  </si>
+  <si>
+    <t>66.9%</t>
+  </si>
+  <si>
+    <t>40.7%</t>
+  </si>
+  <si>
+    <t>23.0%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>25.3%</t>
+  </si>
+  <si>
+    <t>24.0%</t>
+  </si>
+  <si>
+    <t>23.9%</t>
+  </si>
+  <si>
+    <t>25.2%</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>27.0%</t>
+  </si>
+  <si>
+    <t>25.9%</t>
+  </si>
+  <si>
+    <t>26.7%</t>
+  </si>
+  <si>
+    <t>26.4%</t>
+  </si>
+  <si>
+    <t>25.5%</t>
+  </si>
+  <si>
+    <t>26.9%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>24.6%</t>
+  </si>
+  <si>
+    <t>25.6%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>23.1%</t>
+  </si>
+  <si>
+    <t>22.9%</t>
+  </si>
+  <si>
+    <t>24.8%</t>
+  </si>
+  <si>
+    <t>26.3%</t>
+  </si>
+  <si>
+    <t>24.1%</t>
+  </si>
+  <si>
+    <t>26.8%</t>
+  </si>
+  <si>
+    <t>23.6%</t>
+  </si>
+  <si>
+    <t>24.5%</t>
+  </si>
+  <si>
+    <t>24.4%</t>
+  </si>
+  <si>
+    <t>26.2%</t>
+  </si>
+  <si>
+    <t>17.3%</t>
+  </si>
+  <si>
+    <t>21.2%</t>
+  </si>
+  <si>
+    <t>18.3%</t>
+  </si>
+  <si>
+    <t>52.6%</t>
+  </si>
+  <si>
+    <t>58.1%</t>
+  </si>
+  <si>
+    <t>58.6%</t>
+  </si>
+  <si>
+    <t>21.7%</t>
+  </si>
+  <si>
+    <t>9.4%</t>
+  </si>
+  <si>
+    <t>37.0%</t>
+  </si>
+  <si>
+    <t>30.5%</t>
+  </si>
+  <si>
+    <t>39.2%</t>
+  </si>
+  <si>
+    <t>28.0%</t>
+  </si>
+  <si>
+    <t>51.8%</t>
   </si>
   <si>
     <t>40.1%</t>
   </si>
   <si>
-    <t>46.1%</t>
-  </si>
-  <si>
-    <t>24.0%</t>
-  </si>
-  <si>
-    <t>29.1%</t>
-  </si>
-  <si>
-    <t>74.2%</t>
-  </si>
-  <si>
-    <t>49.1%</t>
-  </si>
-  <si>
-    <t>57.5%</t>
-  </si>
-  <si>
-    <t>47.1%</t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t>12.5%</t>
-  </si>
-  <si>
-    <t>56.0%</t>
-  </si>
-  <si>
-    <t>66.6%</t>
-  </si>
-  <si>
-    <t>41.4%</t>
-  </si>
-  <si>
-    <t>45.3%</t>
-  </si>
-  <si>
-    <t>15.4%</t>
-  </si>
-  <si>
-    <t>17.8%</t>
-  </si>
-  <si>
-    <t>48.7%</t>
-  </si>
-  <si>
-    <t>61.3%</t>
-  </si>
-  <si>
-    <t>45.5%</t>
-  </si>
-  <si>
-    <t>42.2%</t>
-  </si>
-  <si>
-    <t>22.6%</t>
-  </si>
-  <si>
-    <t>20.1%</t>
-  </si>
-  <si>
-    <t>29.2%</t>
-  </si>
-  <si>
-    <t>70.8%</t>
-  </si>
-  <si>
-    <t>60.1%</t>
-  </si>
-  <si>
-    <t>58.8%</t>
-  </si>
-  <si>
-    <t>23.7%</t>
-  </si>
-  <si>
-    <t>24.9%</t>
-  </si>
-  <si>
-    <t>55.8%</t>
-  </si>
-  <si>
-    <t>61.9%</t>
-  </si>
-  <si>
-    <t>27.6%</t>
-  </si>
-  <si>
-    <t>54.2%</t>
-  </si>
-  <si>
-    <t>11.0%</t>
-  </si>
-  <si>
-    <t>29.3%</t>
-  </si>
-  <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>77.9%</t>
-  </si>
-  <si>
-    <t>66.9%</t>
-  </si>
-  <si>
-    <t>40.7%</t>
-  </si>
-  <si>
-    <t>21.8%</t>
-  </si>
-  <si>
-    <t>7.4%</t>
-  </si>
-  <si>
-    <t>25.4%</t>
-  </si>
-  <si>
-    <t>22.1%</t>
-  </si>
-  <si>
-    <t>21.0%</t>
-  </si>
-  <si>
-    <t>19.6%</t>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>33.3%</t>
+  </si>
+  <si>
+    <t>19.9%</t>
+  </si>
+  <si>
+    <t>23.5%</t>
+  </si>
+  <si>
+    <t>54.1%</t>
+  </si>
+  <si>
+    <t>19.8%</t>
+  </si>
+  <si>
+    <t>15.8%</t>
+  </si>
+  <si>
+    <t>37.3%</t>
+  </si>
+  <si>
+    <t>29.9%</t>
+  </si>
+  <si>
+    <t>61.8%</t>
+  </si>
+  <si>
+    <t>54.9%</t>
+  </si>
+  <si>
+    <t>27.2%</t>
+  </si>
+  <si>
+    <t>31.5%</t>
+  </si>
+  <si>
+    <t>30.6%</t>
+  </si>
+  <si>
+    <t>51.7%</t>
+  </si>
+  <si>
+    <t>53.3%</t>
+  </si>
+  <si>
+    <t>16.9%</t>
+  </si>
+  <si>
+    <t>43.3%</t>
+  </si>
+  <si>
+    <t>39.0%</t>
+  </si>
+  <si>
+    <t>15.6%</t>
+  </si>
+  <si>
+    <t>19.3%</t>
+  </si>
+  <si>
+    <t>56.5%</t>
   </si>
   <si>
     <t>23.3%</t>
   </si>
   <si>
-    <t>23.6%</t>
-  </si>
-  <si>
-    <t>25.3%</t>
-  </si>
-  <si>
-    <t>25.5%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
-  </si>
-  <si>
-    <t>24.2%</t>
-  </si>
-  <si>
-    <t>17.3%</t>
-  </si>
-  <si>
-    <t>24.6%</t>
-  </si>
-  <si>
-    <t>22.9%</t>
-  </si>
-  <si>
-    <t>22.7%</t>
-  </si>
-  <si>
-    <t>19.9%</t>
-  </si>
-  <si>
-    <t>20.3%</t>
-  </si>
-  <si>
-    <t>25.1%</t>
-  </si>
-  <si>
-    <t>21.4%</t>
-  </si>
-  <si>
-    <t>22.3%</t>
-  </si>
-  <si>
-    <t>24.7%</t>
-  </si>
-  <si>
-    <t>22.0%</t>
-  </si>
-  <si>
-    <t>23.8%</t>
-  </si>
-  <si>
-    <t>23.1%</t>
-  </si>
-  <si>
-    <t>18.7%</t>
-  </si>
-  <si>
-    <t>24.1%</t>
-  </si>
-  <si>
-    <t>24.4%</t>
-  </si>
-  <si>
-    <t>23.4%</t>
-  </si>
-  <si>
-    <t>24.8%</t>
-  </si>
-  <si>
-    <t>19.0%</t>
-  </si>
-  <si>
-    <t>24.3%</t>
-  </si>
-  <si>
-    <t>15.6%</t>
-  </si>
-  <si>
-    <t>20.2%</t>
-  </si>
-  <si>
-    <t>16.5%</t>
-  </si>
-  <si>
-    <t>46.8%</t>
-  </si>
-  <si>
-    <t>42.3%</t>
-  </si>
-  <si>
-    <t>60.6%</t>
-  </si>
-  <si>
-    <t>14.6%</t>
-  </si>
-  <si>
-    <t>12.0%</t>
-  </si>
-  <si>
-    <t>31.7%</t>
-  </si>
-  <si>
-    <t>34.4%</t>
-  </si>
-  <si>
-    <t>28.9%</t>
-  </si>
-  <si>
-    <t>51.8%</t>
-  </si>
-  <si>
-    <t>45.9%</t>
-  </si>
-  <si>
-    <t>8.5%</t>
-  </si>
-  <si>
-    <t>26.3%</t>
-  </si>
-  <si>
-    <t>19.5%</t>
-  </si>
-  <si>
-    <t>28.0%</t>
-  </si>
-  <si>
-    <t>58.5%</t>
-  </si>
-  <si>
-    <t>67.5%</t>
-  </si>
-  <si>
-    <t>13.1%</t>
-  </si>
-  <si>
-    <t>33.1%</t>
-  </si>
-  <si>
-    <t>29.6%</t>
-  </si>
-  <si>
-    <t>63.2%</t>
-  </si>
-  <si>
-    <t>59.9%</t>
-  </si>
-  <si>
-    <t>26.6%</t>
-  </si>
-  <si>
-    <t>16.8%</t>
-  </si>
-  <si>
-    <t>29.4%</t>
+    <t>72.1%</t>
+  </si>
+  <si>
+    <t>41.9%</t>
+  </si>
+  <si>
+    <t>26.5%</t>
+  </si>
+  <si>
+    <t>6.5%</t>
+  </si>
+  <si>
+    <t>11.9%</t>
   </si>
   <si>
     <t>32.4%</t>
   </si>
   <si>
-    <t>53.6%</t>
-  </si>
-  <si>
-    <t>56.8%</t>
-  </si>
-  <si>
-    <t>45.7%</t>
-  </si>
-  <si>
-    <t>10.5%</t>
-  </si>
-  <si>
-    <t>17.6%</t>
-  </si>
-  <si>
-    <t>18.6%</t>
-  </si>
-  <si>
-    <t>52.2%</t>
-  </si>
-  <si>
-    <t>50.7%</t>
-  </si>
-  <si>
-    <t>20.8%</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>47.6%</t>
-  </si>
-  <si>
-    <t>70.0%</t>
-  </si>
-  <si>
-    <t>6.4%</t>
-  </si>
-  <si>
-    <t>12.9%</t>
-  </si>
-  <si>
-    <t>33.8%</t>
-  </si>
-  <si>
-    <t>54.5%</t>
-  </si>
-  <si>
-    <t>76.1%</t>
+    <t>51.5%</t>
+  </si>
+  <si>
+    <t>73.9%</t>
   </si>
 </sst>
 </file>
@@ -997,10 +970,10 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1029,10 +1002,10 @@
         <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1061,10 +1034,10 @@
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1093,10 +1066,10 @@
         <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1125,10 +1098,10 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1157,10 +1130,10 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1189,10 +1162,10 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1221,10 +1194,10 @@
         <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1253,10 +1226,10 @@
         <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1285,10 +1258,10 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1317,10 +1290,10 @@
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1349,10 +1322,10 @@
         <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1381,10 +1354,10 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1413,10 +1386,10 @@
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1445,10 +1418,10 @@
         <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1477,10 +1450,10 @@
         <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1509,10 +1482,10 @@
         <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1538,13 +1511,13 @@
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1570,13 +1543,13 @@
         <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1602,13 +1575,13 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1634,13 +1607,13 @@
         <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1666,13 +1639,13 @@
         <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1698,13 +1671,13 @@
         <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1730,13 +1703,13 @@
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1762,13 +1735,13 @@
         <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1794,13 +1767,13 @@
         <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1826,13 +1799,13 @@
         <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
         <v>128</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1858,13 +1831,13 @@
         <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1890,13 +1863,13 @@
         <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1922,13 +1895,13 @@
         <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1954,13 +1927,13 @@
         <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J32" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1986,13 +1959,13 @@
         <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2018,13 +1991,13 @@
         <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J34" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2050,13 +2023,13 @@
         <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2082,13 +2055,13 @@
         <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="J36" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2114,13 +2087,13 @@
         <v>54</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="J37" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2146,13 +2119,13 @@
         <v>59</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2178,13 +2151,13 @@
         <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2210,13 +2183,13 @@
         <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J40" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2242,13 +2215,13 @@
         <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2274,13 +2247,13 @@
         <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2306,13 +2279,13 @@
         <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I43" t="s">
         <v>128</v>
       </c>
       <c r="J43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2338,13 +2311,13 @@
         <v>58</v>
       </c>
       <c r="H44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2370,13 +2343,13 @@
         <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2402,13 +2375,13 @@
         <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2434,13 +2407,13 @@
         <v>63</v>
       </c>
       <c r="H47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2466,13 +2439,13 @@
         <v>58</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I48" t="s">
         <v>117</v>
       </c>
       <c r="J48" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2498,13 +2471,13 @@
         <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
